--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99666.60822809454</v>
+        <v>131700.6816877754</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1767308.885438206</v>
+        <v>1832466.941087891</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24011445.17803244</v>
+        <v>24008599.87595077</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5340622.507080787</v>
+        <v>5329271.144700371</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>89.35872216232903</v>
+        <v>108.2368223848445</v>
       </c>
       <c r="N2" t="n">
-        <v>83.98878642167108</v>
+        <v>103.172354042233</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>38.8718120156598</v>
+        <v>51.3617909501472</v>
       </c>
       <c r="M3" t="n">
-        <v>16.76619772104769</v>
+        <v>31.3414140233472</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10.88542982226673</v>
       </c>
       <c r="O3" t="n">
-        <v>29.09636626239171</v>
+        <v>42.78273909865345</v>
       </c>
       <c r="P3" t="n">
-        <v>51.91261060228356</v>
+        <v>62.89713141532692</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>82.51983503065313</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>77.0392389463683</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
-        <v>92.44578651335058</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>34.34712175534997</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>11.4860976031182</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.1382635949636</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>47.93329609761997</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>51.91261060228356</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L11" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M11" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N11" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P11" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L14" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M14" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N14" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P14" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27780726850284</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L17" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M17" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N17" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P17" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L20" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M20" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N20" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P20" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L23" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M23" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N23" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P23" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L26" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M26" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N26" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P26" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L29" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M29" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N29" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P29" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L32" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M32" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N32" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P32" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L35" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M35" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N35" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P35" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L38" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M38" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N38" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P38" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L41" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M41" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N41" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P41" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850281</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L44" t="n">
-        <v>50.04010588902617</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M44" t="n">
-        <v>8.894863273479075</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N44" t="n">
-        <v>2.222938173624982</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.79887523416346</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P44" t="n">
-        <v>69.5722233101028</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>40.20975561493427</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>5.093443300258059</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.180569077725</v>
+        <v>422.2880807004427</v>
       </c>
       <c r="H2" t="n">
-        <v>349.6598249464623</v>
+        <v>350.7608783526191</v>
       </c>
       <c r="I2" t="n">
-        <v>253.2845231898766</v>
+        <v>257.4293650246976</v>
       </c>
       <c r="J2" t="n">
-        <v>101.17202184758</v>
+        <v>110.2969364362097</v>
       </c>
       <c r="K2" t="n">
-        <v>58.29051612840928</v>
+        <v>71.96639770667591</v>
       </c>
       <c r="L2" t="n">
-        <v>13.76272976322227</v>
+        <v>30.72887016523327</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>18.11449892216359</v>
       </c>
       <c r="P2" t="n">
-        <v>51.80080109985099</v>
+        <v>67.26110683617333</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.6935628343943</v>
+        <v>129.3036085821418</v>
       </c>
       <c r="R2" t="n">
-        <v>209.6584962505987</v>
+        <v>216.4119732211345</v>
       </c>
       <c r="S2" t="n">
-        <v>235.2672937814706</v>
+        <v>237.7172148841484</v>
       </c>
       <c r="T2" t="n">
-        <v>219.3436445631938</v>
+        <v>219.8142766916402</v>
       </c>
       <c r="U2" t="n">
-        <v>248.788833337017</v>
+        <v>248.7974342668344</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0149653106349</v>
+        <v>161.0724891000918</v>
       </c>
       <c r="H3" t="n">
-        <v>137.7503459159327</v>
+        <v>138.3059046193716</v>
       </c>
       <c r="I3" t="n">
-        <v>116.9507599882392</v>
+        <v>118.9312939673468</v>
       </c>
       <c r="J3" t="n">
-        <v>81.45811026959613</v>
+        <v>86.89284688666093</v>
       </c>
       <c r="K3" t="n">
-        <v>11.04044456262879</v>
+        <v>20.32927507330494</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.82637802552915</v>
+        <v>61.16923929023618</v>
       </c>
       <c r="R3" t="n">
-        <v>154.3921839405207</v>
+        <v>157.9637048332912</v>
       </c>
       <c r="S3" t="n">
-        <v>208.0224770741423</v>
+        <v>209.0909562335717</v>
       </c>
       <c r="T3" t="n">
-        <v>230.0952907293151</v>
+        <v>230.3271519683979</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6533388628103</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.2343807020206</v>
+        <v>169.282606714752</v>
       </c>
       <c r="H4" t="n">
-        <v>167.5776180378764</v>
+        <v>168.0063911328877</v>
       </c>
       <c r="I4" t="n">
-        <v>167.7355108777182</v>
+        <v>169.1857986060385</v>
       </c>
       <c r="J4" t="n">
-        <v>132.2802453397308</v>
+        <v>135.6898244398356</v>
       </c>
       <c r="K4" t="n">
-        <v>87.46423987719797</v>
+        <v>93.06722571998299</v>
       </c>
       <c r="L4" t="n">
-        <v>61.01644271081538</v>
+        <v>68.18633554907093</v>
       </c>
       <c r="M4" t="n">
-        <v>57.6471651877402</v>
+        <v>65.20681189252439</v>
       </c>
       <c r="N4" t="n">
-        <v>45.30505538511905</v>
+        <v>52.68495058790467</v>
       </c>
       <c r="O4" t="n">
-        <v>70.7260729557852</v>
+        <v>77.54260064620941</v>
       </c>
       <c r="P4" t="n">
-        <v>89.84907843621555</v>
+        <v>95.6817954669207</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.6385858692978</v>
+        <v>155.6768568081</v>
       </c>
       <c r="R4" t="n">
-        <v>221.05342233419</v>
+        <v>223.2218392339095</v>
       </c>
       <c r="S4" t="n">
-        <v>243.6919922925021</v>
+        <v>244.5324401689198</v>
       </c>
       <c r="T4" t="n">
-        <v>218.0866353446397</v>
+        <v>218.2926919444918</v>
       </c>
       <c r="U4" t="n">
-        <v>291.219579948833</v>
+        <v>291.2222104586183</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1416213105004</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>349.2609511253734</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>251.7829893939503</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>97.86637878910139</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>53.33621408331354</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>7.616479986926777</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>46.20006348824501</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q5" t="n">
-        <v>113.4876421365191</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>207.2119435676767</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>234.3797715358401</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.1731507121682</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.785717515639</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>160.9941264180109</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.5490860845379</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>116.2332805711413</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>79.48929190988834</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>7.675420397113641</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>51.16631166180714</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R6" t="n">
-        <v>153.0983446247961</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>207.6354037835169</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0112953682561</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6481834231997</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2169100744685</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.4222882765488</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.2101214600581</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>131.0450719717917</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>85.43447060340826</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>58.41903686546664</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>54.90856490699247</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N7" t="n">
-        <v>42.63157289797491</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>68.25667916322789</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>87.73608544572274</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.1756590476329</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>220.2678793898892</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.3875269014336</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0119881178259</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.218627005512</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0568960504157</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147888</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488763</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J9" t="n">
-        <v>75.2064110293488</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470318</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673177</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235183</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H11" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I11" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J11" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935984</v>
       </c>
       <c r="R11" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S11" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I12" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J12" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R12" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S12" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U12" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I13" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J13" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K13" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L13" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M13" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N13" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O13" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P13" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R13" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S13" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T13" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H14" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I14" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J14" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935984</v>
       </c>
       <c r="R14" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S14" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I15" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J15" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R15" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S15" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T15" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U15" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I16" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J16" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K16" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L16" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150396</v>
       </c>
       <c r="M16" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N16" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O16" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P16" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R16" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S16" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T16" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H17" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I17" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J17" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R17" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S17" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I18" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J18" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R18" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T18" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I19" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J19" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K19" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L19" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M19" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N19" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O19" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P19" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R19" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S19" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T19" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H20" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I20" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J20" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R20" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S20" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I21" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J21" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R21" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S21" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T21" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I22" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J22" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K22" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L22" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M22" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N22" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O22" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P22" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R22" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S22" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T22" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H23" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I23" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J23" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R23" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S23" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I24" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J24" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R24" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S24" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T24" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I25" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J25" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K25" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L25" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M25" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N25" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O25" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P25" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R25" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S25" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T25" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H26" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I26" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J26" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R26" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S26" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I27" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J27" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R27" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S27" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T27" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U27" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I28" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J28" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K28" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L28" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M28" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N28" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O28" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P28" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R28" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S28" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T28" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H29" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I29" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J29" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R29" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I30" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J30" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R30" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T30" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U30" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I31" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J31" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K31" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L31" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M31" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N31" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O31" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P31" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R31" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S31" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T31" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H32" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I32" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J32" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R32" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S32" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I33" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J33" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R33" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T33" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U33" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I34" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J34" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K34" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L34" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M34" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N34" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O34" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P34" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R34" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S34" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T34" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H35" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I35" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J35" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S35" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I36" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J36" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R36" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S36" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T36" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U36" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I37" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J37" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K37" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L37" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M37" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N37" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O37" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P37" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R37" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S37" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H38" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I38" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J38" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R38" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S38" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I39" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J39" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R39" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S39" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T39" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I40" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J40" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K40" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L40" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M40" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N40" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O40" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P40" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R40" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S40" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H41" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J41" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R41" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S41" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I42" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J42" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R42" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T42" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U42" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I43" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J43" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K43" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L43" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M43" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N43" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O43" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P43" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R43" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S43" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7223238127198</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H44" t="n">
-        <v>344.9668206262274</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6180226107624</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J44" t="n">
-        <v>62.27902778684214</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.2082294730605</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R44" t="n">
-        <v>180.8732471227138</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S44" t="n">
-        <v>224.8250298051639</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3376759156334</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7521737158166</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7697824785144</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3823959320322</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I45" t="n">
-        <v>108.5091580928627</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J45" t="n">
-        <v>58.29370945070387</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R45" t="n">
-        <v>139.1693410830749</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S45" t="n">
-        <v>203.4683135038341</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T45" t="n">
-        <v>229.1070318577418</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.028827651796</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7500645549697</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I46" t="n">
-        <v>161.5539700582341</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J46" t="n">
-        <v>117.7476446888457</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K46" t="n">
-        <v>63.58271276927572</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L46" t="n">
-        <v>30.45631013468386</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M46" t="n">
-        <v>25.42579023297466</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N46" t="n">
-        <v>13.84983270846368</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O46" t="n">
-        <v>41.67208363857272</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P46" t="n">
-        <v>64.98837134358662</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q46" t="n">
-        <v>134.42632090912</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R46" t="n">
-        <v>211.8110097304511</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S46" t="n">
-        <v>240.1097632263137</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2083632209524</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2083679642753</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>431533.8047906961</v>
+        <v>417613.6380114718</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>435739.2769641046</v>
+        <v>427713.4961806209</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>444120.5218405017</v>
+        <v>431533.8047906961</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>470148.7791268557</v>
+        <v>472675.338694473</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>82771.66651334811</v>
+      </c>
+      <c r="C2" t="n">
+        <v>85059.69424335432</v>
+      </c>
+      <c r="D2" t="n">
         <v>85916.34110757665</v>
       </c>
-      <c r="C2" t="n">
-        <v>86898.84189065189</v>
-      </c>
-      <c r="D2" t="n">
-        <v>88898.73010881709</v>
-      </c>
       <c r="E2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491995</v>
       </c>
       <c r="F2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491995</v>
       </c>
       <c r="G2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="H2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="I2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="J2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="K2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="L2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="M2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="N2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="O2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
       <c r="P2" t="n">
-        <v>95378.10032720606</v>
+        <v>96070.40428491993</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>337891.9184474517</v>
+        <v>312121.5186186302</v>
       </c>
       <c r="C3" t="n">
-        <v>8822.146289150152</v>
+        <v>17718.73356555193</v>
       </c>
       <c r="D3" t="n">
-        <v>18049.2748489484</v>
+        <v>6239.192452337453</v>
       </c>
       <c r="E3" t="n">
-        <v>66863.08944603939</v>
+        <v>101541.5313552501</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>17550.58319695605</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16591.64067107515</v>
+      </c>
+      <c r="D4" t="n">
         <v>16271.48943740879</v>
       </c>
-      <c r="C4" t="n">
-        <v>15728.20782595366</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14443.32631455249</v>
-      </c>
       <c r="E4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="F4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="G4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="H4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="I4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="J4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="K4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="L4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="M4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="N4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="O4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
       <c r="P4" t="n">
-        <v>9154.627545359943</v>
+        <v>8335.051317360203</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40688.78442350418</v>
+      </c>
+      <c r="C5" t="n">
+        <v>41112.97456555201</v>
+      </c>
+      <c r="D5" t="n">
         <v>41271.79307559616</v>
       </c>
-      <c r="C5" t="n">
-        <v>41482.99708031335</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41942.44098443807</v>
-      </c>
       <c r="E5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="F5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="G5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="H5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="I5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="J5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="K5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="L5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="M5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="N5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="O5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="P5" t="n">
-        <v>10129.14258640329</v>
+        <v>10399.47950537606</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-309518.85985288</v>
+        <v>-287589.2197257424</v>
       </c>
       <c r="C6" t="n">
-        <v>20865.49069523473</v>
+        <v>9636.345441175232</v>
       </c>
       <c r="D6" t="n">
-        <v>14463.68796087813</v>
+        <v>22133.86614223424</v>
       </c>
       <c r="E6" t="n">
-        <v>9231.240749403438</v>
+        <v>-24205.65789306644</v>
       </c>
       <c r="F6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218369</v>
       </c>
       <c r="G6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="H6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="I6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="J6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="K6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="L6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="M6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="N6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="O6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
       <c r="P6" t="n">
-        <v>76094.33019544283</v>
+        <v>77335.87346218368</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>323.9075423625773</v>
+      </c>
+      <c r="C3" t="n">
+        <v>343.3658057592666</v>
+      </c>
+      <c r="D3" t="n">
         <v>350.6510585135856</v>
       </c>
-      <c r="C3" t="n">
-        <v>360.3393156107039</v>
-      </c>
-      <c r="D3" t="n">
-        <v>381.4147240567924</v>
-      </c>
       <c r="E3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="F3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="G3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="H3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="I3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="J3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="K3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="L3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="M3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="N3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="O3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="P3" t="n">
-        <v>464.6395681836371</v>
+        <v>477.0403442833053</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>350.6510585135856</v>
+        <v>323.9075423625773</v>
       </c>
       <c r="C3" t="n">
-        <v>9.688257097118338</v>
+        <v>19.45826339668915</v>
       </c>
       <c r="D3" t="n">
-        <v>21.07540844608846</v>
+        <v>7.285252754319117</v>
       </c>
       <c r="E3" t="n">
-        <v>83.22484412684467</v>
+        <v>126.3892857697197</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.409652496537027</v>
+        <v>1.302140873819405</v>
       </c>
       <c r="H2" t="n">
-        <v>14.43660363015983</v>
+        <v>13.33555022400299</v>
       </c>
       <c r="I2" t="n">
-        <v>54.34562787274376</v>
+        <v>50.20078603792267</v>
       </c>
       <c r="J2" t="n">
-        <v>119.6424935779595</v>
+        <v>110.5175789893298</v>
       </c>
       <c r="K2" t="n">
-        <v>179.3130837563719</v>
+        <v>165.6372021781053</v>
       </c>
       <c r="L2" t="n">
-        <v>222.453736347267</v>
+        <v>205.487595945256</v>
       </c>
       <c r="M2" t="n">
-        <v>247.5226439325573</v>
+        <v>228.6445437100418</v>
       </c>
       <c r="N2" t="n">
-        <v>251.5278190883432</v>
+        <v>232.3442514677812</v>
       </c>
       <c r="O2" t="n">
-        <v>237.5105870759031</v>
+        <v>219.3960881537395</v>
       </c>
       <c r="P2" t="n">
-        <v>202.7097910676452</v>
+        <v>187.2494853313229</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.2266110354129</v>
+        <v>140.6165652876654</v>
       </c>
       <c r="R2" t="n">
-        <v>88.54908363559406</v>
+        <v>81.79560666505829</v>
       </c>
       <c r="S2" t="n">
-        <v>32.12245626483752</v>
+        <v>29.67253516215973</v>
       </c>
       <c r="T2" t="n">
-        <v>6.170753803590836</v>
+        <v>5.70012167514445</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1041712699055524</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.6967067892327135</v>
       </c>
       <c r="H3" t="n">
-        <v>7.284279536291656</v>
+        <v>6.728720832852787</v>
       </c>
       <c r="I3" t="n">
-        <v>25.96802650312875</v>
+        <v>23.98749252402106</v>
       </c>
       <c r="J3" t="n">
-        <v>71.25824954189763</v>
+        <v>65.82351292483283</v>
       </c>
       <c r="K3" t="n">
-        <v>121.7916983141008</v>
+        <v>112.5028678034246</v>
       </c>
       <c r="L3" t="n">
-        <v>163.7639684124062</v>
+        <v>151.2739894779188</v>
       </c>
       <c r="M3" t="n">
-        <v>191.1048268899041</v>
+        <v>176.5296105876046</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>181.2018240996082</v>
       </c>
       <c r="O3" t="n">
-        <v>179.4506412376083</v>
+        <v>165.7642684013465</v>
       </c>
       <c r="P3" t="n">
-        <v>144.0249602411744</v>
+        <v>133.0404394281311</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.27687176395656</v>
+        <v>88.93401049924954</v>
       </c>
       <c r="R3" t="n">
-        <v>46.82845645583321</v>
+        <v>43.2569355630627</v>
       </c>
       <c r="S3" t="n">
-        <v>14.00950219627391</v>
+        <v>12.94102303684447</v>
       </c>
       <c r="T3" t="n">
-        <v>3.040078516735708</v>
+        <v>2.80821727765291</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04583597297583644</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.5840955681948115</v>
       </c>
       <c r="H4" t="n">
-        <v>5.621913692234211</v>
+        <v>5.193140597222964</v>
       </c>
       <c r="I4" t="n">
-        <v>19.0156344518515</v>
+        <v>17.56534672353125</v>
       </c>
       <c r="J4" t="n">
-        <v>44.70513577147795</v>
+        <v>41.29555667137317</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46427094760037</v>
+        <v>67.86128510481535</v>
       </c>
       <c r="L4" t="n">
-        <v>94.00897394969145</v>
+        <v>86.8390811114359</v>
       </c>
       <c r="M4" t="n">
-        <v>99.11928199917631</v>
+        <v>91.55963529439212</v>
       </c>
       <c r="N4" t="n">
-        <v>96.76244701572442</v>
+        <v>89.3825518129388</v>
       </c>
       <c r="O4" t="n">
-        <v>89.37578127490541</v>
+        <v>82.5592535844812</v>
       </c>
       <c r="P4" t="n">
-        <v>76.47642102401214</v>
+        <v>70.64370399330699</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.94830983555142</v>
+        <v>48.91003889674917</v>
       </c>
       <c r="R4" t="n">
-        <v>28.43147762964252</v>
+        <v>26.26306072992306</v>
       </c>
       <c r="S4" t="n">
-        <v>11.01964064214005</v>
+        <v>10.1791927657223</v>
       </c>
       <c r="T4" t="n">
-        <v>2.701737663957134</v>
+        <v>2.495681064105103</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03185975826517157</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.448600263761623</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.83547745124872</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>55.84716166867001</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>122.9481366364381</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>184.2673858014677</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>228.5999861235625</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>254.3615310642332</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>258.4773665636459</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
-        <v>244.0728476908663</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>208.3105286792512</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>156.432531733288</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>90.99563631851612</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>33.00997851046801</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.341247654616507</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1158880211009298</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7750694713135896</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.485539367686511</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
-        <v>26.68550592022666</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>73.22706790160542</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>125.1567224796159</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
-        <v>168.288658672716</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>196.3849270078336</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>184.4087439050364</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>148.004274745838</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>98.93693812767857</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>48.1222957715578</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
-        <v>14.39657548689934</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.124073877794687</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05099141258642039</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6497922084783184</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.777243453561781</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>19.54102386951162</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>45.94030913941712</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>75.49404022139008</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>96.6063797950402</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>101.857882279924</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>99.43592950286856</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>91.84517506746272</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>78.58941401450495</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.41123665721629</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>29.21702057394329</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>11.32410603320851</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.776384890770996</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03544321137154469</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>144.0249602411744</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H11" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I11" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J11" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K11" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L11" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M11" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N11" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P11" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R11" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S11" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T11" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H12" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I12" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J12" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K12" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R12" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S12" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T12" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H13" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I13" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J13" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K13" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L13" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M13" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N13" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O13" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P13" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R13" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S13" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T13" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H14" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I14" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093318</v>
       </c>
       <c r="J14" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K14" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L14" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M14" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N14" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P14" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104473</v>
       </c>
       <c r="R14" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S14" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660631</v>
       </c>
       <c r="T14" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H15" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I15" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J15" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K15" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R15" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485352</v>
       </c>
       <c r="S15" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T15" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H16" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558572</v>
       </c>
       <c r="I16" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J16" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K16" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L16" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M16" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N16" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O16" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P16" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R16" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451191</v>
       </c>
       <c r="S16" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T16" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035301</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H17" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I17" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J17" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K17" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L17" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M17" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N17" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P17" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R17" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S17" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T17" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H18" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I18" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J18" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K18" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R18" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S18" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T18" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H19" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I19" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J19" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K19" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L19" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M19" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N19" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O19" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P19" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R19" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S19" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T19" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H20" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I20" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J20" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K20" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L20" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M20" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N20" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P20" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R20" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S20" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T20" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H21" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I21" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J21" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K21" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R21" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S21" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T21" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H22" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I22" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J22" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K22" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L22" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M22" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N22" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O22" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P22" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R22" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S22" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T22" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H23" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I23" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J23" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K23" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L23" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M23" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N23" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P23" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R23" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S23" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T23" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H24" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I24" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J24" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K24" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R24" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S24" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T24" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H25" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I25" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J25" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K25" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L25" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M25" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N25" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O25" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P25" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R25" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S25" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T25" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H26" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I26" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J26" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K26" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L26" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M26" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N26" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P26" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R26" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S26" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T26" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H27" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I27" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J27" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K27" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R27" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S27" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T27" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H28" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I28" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J28" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K28" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L28" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M28" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N28" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O28" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P28" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R28" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S28" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T28" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H29" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I29" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J29" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K29" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L29" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M29" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N29" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P29" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R29" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S29" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T29" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H30" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I30" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J30" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K30" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R30" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S30" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H31" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I31" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J31" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K31" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L31" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M31" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N31" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O31" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P31" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R31" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S31" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T31" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H32" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I32" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J32" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K32" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L32" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M32" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N32" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P32" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R32" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S32" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T32" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H33" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I33" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J33" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K33" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R33" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S33" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H34" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I34" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J34" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K34" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L34" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M34" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N34" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O34" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P34" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R34" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S34" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T34" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H35" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I35" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J35" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K35" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L35" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M35" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N35" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P35" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R35" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S35" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T35" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H36" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I36" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J36" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K36" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R36" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S36" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T36" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H37" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I37" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J37" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K37" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L37" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M37" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N37" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O37" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P37" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R37" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S37" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T37" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H38" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I38" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J38" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K38" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L38" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M38" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N38" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P38" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R38" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S38" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T38" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H39" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I39" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J39" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K39" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R39" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S39" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T39" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H40" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I40" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J40" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K40" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L40" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M40" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N40" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O40" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P40" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R40" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S40" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T40" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H41" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I41" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J41" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K41" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L41" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M41" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N41" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P41" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q41" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R41" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S41" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T41" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H42" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I42" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J42" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K42" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R42" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S42" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T42" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H43" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I43" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J43" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K43" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L43" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M43" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N43" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O43" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P43" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R43" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S43" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T43" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.867897761542258</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H44" t="n">
-        <v>19.12960795039466</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.01212845185798</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J44" t="n">
-        <v>158.5354876386974</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K44" t="n">
-        <v>237.6035998847812</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L44" t="n">
-        <v>294.7682760045802</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M44" t="n">
-        <v>327.9865028214073</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N44" t="n">
-        <v>333.2936673363893</v>
+        <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>314.7197589700534</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P44" t="n">
-        <v>268.6060329819789</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7119443967467</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R44" t="n">
-        <v>117.334332763479</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S44" t="n">
-        <v>42.56472024114425</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T44" t="n">
-        <v>8.176722451151239</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1494318209233806</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9994134108100874</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H45" t="n">
-        <v>9.652229520192162</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I45" t="n">
-        <v>34.40962839850521</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J45" t="n">
-        <v>94.42265036078989</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K45" t="n">
-        <v>161.3833488850657</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>190.8441275431999</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.5742452114771</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R45" t="n">
-        <v>62.05129931327896</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S45" t="n">
-        <v>18.56366576658209</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T45" t="n">
-        <v>4.028337388309079</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8378746311508208</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H46" t="n">
-        <v>7.44946717514094</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I46" t="n">
-        <v>25.1971752713356</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J46" t="n">
-        <v>59.23773642236304</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K46" t="n">
-        <v>97.34579805552262</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L46" t="n">
-        <v>124.569106525823</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M46" t="n">
-        <v>131.3406569539418</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N46" t="n">
-        <v>128.2176696923798</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O46" t="n">
-        <v>118.4297705921179</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P46" t="n">
-        <v>101.3371281166411</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.1605747957292</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R46" t="n">
-        <v>37.67389023338145</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S46" t="n">
-        <v>14.60186970832839</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T46" t="n">
-        <v>3.580009787644415</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_9_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131700.6816877754</v>
+        <v>-3861.176230814308</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1832466.941087891</v>
+        <v>1788548.009788662</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24008599.87595077</v>
+        <v>24016539.63580924</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5329271.144700371</v>
+        <v>5333493.462990683</v>
       </c>
     </row>
     <row r="11">
@@ -7987,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>108.2368223848445</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>103.172354042233</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8063,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>51.3617909501472</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M3" t="n">
-        <v>31.3414140233472</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N3" t="n">
-        <v>10.88542982226673</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42.78273909865345</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P3" t="n">
-        <v>62.89713141532692</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8227,7 +8227,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>89.2146190330682</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8461,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.35872216232903</v>
+        <v>74.04503350661622</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167108</v>
+        <v>68.42730627354024</v>
       </c>
       <c r="O8" t="n">
-        <v>99.00804712831379</v>
+        <v>84.31378269605858</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.8718120156598</v>
+        <v>28.74009079028824</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104769</v>
+        <v>4.94295693345623</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>29.09636626239171</v>
+        <v>17.99414464209616</v>
       </c>
       <c r="P9" t="n">
-        <v>51.91261060228356</v>
+        <v>43.00209896284861</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8692,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L11" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P11" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L14" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P14" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L17" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P17" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L20" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P20" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L23" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P23" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L26" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P26" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L29" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P29" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L32" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P32" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L35" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P35" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L38" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P38" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L41" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P41" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>77.93639933769612</v>
+        <v>82.08949721751142</v>
       </c>
       <c r="L44" t="n">
-        <v>42.17302860521357</v>
+        <v>47.32531376716008</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1412239717268449</v>
+        <v>5.874133953461808</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.39931236355858</v>
+        <v>18.90033155833652</v>
       </c>
       <c r="P44" t="n">
-        <v>62.40339073079667</v>
+        <v>67.09838334296251</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>35.90259171246745</v>
+        <v>38.72342794734382</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>3.335784229949411</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22561,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2880807004427</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H2" t="n">
-        <v>350.7608783526191</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I2" t="n">
-        <v>257.4293650246976</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2969364362097</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K2" t="n">
-        <v>71.96639770667591</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>30.72887016523327</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.11449892216359</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>67.26110683617333</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
-        <v>129.3036085821418</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R2" t="n">
-        <v>216.4119732211345</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S2" t="n">
-        <v>237.7172148841484</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T2" t="n">
-        <v>219.8142766916402</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7974342668344</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0724891000918</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H3" t="n">
-        <v>138.3059046193716</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I3" t="n">
-        <v>118.9312939673468</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J3" t="n">
-        <v>86.89284688666093</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>20.32927507330494</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22670,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.16923929023618</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
-        <v>157.9637048332912</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S3" t="n">
-        <v>209.0909562335717</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T3" t="n">
-        <v>230.3271519683979</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6533388628103</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.282606714752</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H4" t="n">
-        <v>168.0063911328877</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I4" t="n">
-        <v>169.1857986060385</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J4" t="n">
-        <v>135.6898244398356</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K4" t="n">
-        <v>93.06722571998299</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L4" t="n">
-        <v>68.18633554907093</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>65.20681189252439</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
-        <v>52.68495058790467</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O4" t="n">
-        <v>77.54260064620941</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P4" t="n">
-        <v>95.6817954669207</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q4" t="n">
-        <v>155.6768568081</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R4" t="n">
-        <v>223.2218392339095</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S4" t="n">
-        <v>244.5324401689198</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T4" t="n">
-        <v>218.2926919444918</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2222104586183</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22813,7 +22813,7 @@
         <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>18.38450875428637</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22825,7 +22825,7 @@
         <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>56.01237276874352</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q5" t="n">
         <v>120.8562777625268</v>
@@ -22889,7 +22889,7 @@
         <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>13.57083277636241</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.82666100818672</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R6" t="n">
         <v>155.3651088272201</v>
@@ -22974,7 +22974,7 @@
         <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>59.70650310975206</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N7" t="n">
         <v>47.31542685419204</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.180569077725</v>
+        <v>422.0933569378507</v>
       </c>
       <c r="H8" t="n">
-        <v>349.6598249464623</v>
+        <v>348.766663618974</v>
       </c>
       <c r="I8" t="n">
-        <v>253.2845231898766</v>
+        <v>249.9222771673705</v>
       </c>
       <c r="J8" t="n">
-        <v>101.17202184758</v>
+        <v>93.77000049091893</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840928</v>
+        <v>47.19680489086682</v>
       </c>
       <c r="L8" t="n">
-        <v>13.76272976322227</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23062,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985099</v>
+        <v>39.2595863707439</v>
       </c>
       <c r="Q8" t="n">
-        <v>117.6935628343943</v>
+        <v>108.2756328645375</v>
       </c>
       <c r="R8" t="n">
-        <v>209.6584962505987</v>
+        <v>204.1801566692163</v>
       </c>
       <c r="S8" t="n">
-        <v>235.2672937814706</v>
+        <v>233.2799471440838</v>
       </c>
       <c r="T8" t="n">
-        <v>219.3436445631938</v>
+        <v>218.9618734208938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.788833337017</v>
+        <v>248.7818563658271</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.0149653106349</v>
+        <v>160.968302702022</v>
       </c>
       <c r="H9" t="n">
-        <v>137.7503459159327</v>
+        <v>137.2996833538022</v>
       </c>
       <c r="I9" t="n">
-        <v>116.9507599882392</v>
+        <v>115.3441745601174</v>
       </c>
       <c r="J9" t="n">
-        <v>81.45811026959613</v>
+        <v>77.04951705849162</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262879</v>
+        <v>3.505456574455792</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.82637802552915</v>
+        <v>47.86993696819729</v>
       </c>
       <c r="R9" t="n">
-        <v>154.3921839405207</v>
+        <v>151.4950089952352</v>
       </c>
       <c r="S9" t="n">
-        <v>208.0224770741423</v>
+        <v>207.155739585213</v>
       </c>
       <c r="T9" t="n">
-        <v>230.0952907293151</v>
+        <v>229.9072076709146</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6495544029776</v>
+        <v>249.6464844945162</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.2343807020206</v>
+        <v>169.1952603384582</v>
       </c>
       <c r="H10" t="n">
-        <v>167.5776180378764</v>
+        <v>167.229802441839</v>
       </c>
       <c r="I10" t="n">
-        <v>167.7355108777182</v>
+        <v>166.5590548534935</v>
       </c>
       <c r="J10" t="n">
-        <v>132.2802453397308</v>
+        <v>129.5144356358626</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719797</v>
+        <v>82.91916491057385</v>
       </c>
       <c r="L10" t="n">
-        <v>61.01644271081538</v>
+        <v>55.200311568079</v>
       </c>
       <c r="M10" t="n">
-        <v>57.6471651877402</v>
+        <v>51.51487037948515</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511905</v>
+        <v>39.31857284105146</v>
       </c>
       <c r="O10" t="n">
-        <v>70.7260729557852</v>
+        <v>65.19658738606127</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621555</v>
+        <v>85.11764828316647</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.6385858692978</v>
+        <v>148.3627888804421</v>
       </c>
       <c r="R10" t="n">
-        <v>221.05342233419</v>
+        <v>219.2944285325528</v>
       </c>
       <c r="S10" t="n">
-        <v>243.6919922925021</v>
+        <v>243.0102310475085</v>
       </c>
       <c r="T10" t="n">
-        <v>218.0866353446397</v>
+        <v>217.9194847003273</v>
       </c>
       <c r="U10" t="n">
-        <v>291.219579948833</v>
+        <v>291.2174461108205</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H11" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I11" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J11" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.82473475935984</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R11" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S11" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T11" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H12" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I12" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J12" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R12" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S12" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T12" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H13" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I13" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J13" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K13" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L13" t="n">
-        <v>27.13168239150396</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M13" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N13" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P13" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q13" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R13" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S13" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H14" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I14" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J14" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.82473475935984</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R14" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S14" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H15" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I15" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J15" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R15" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S15" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T15" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H16" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I16" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J16" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K16" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L16" t="n">
-        <v>27.13168239150396</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M16" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N16" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P16" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q16" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R16" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S16" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H17" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I17" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J17" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R17" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S17" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H18" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I18" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J18" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R18" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S18" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T18" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H19" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I19" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J19" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K19" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L19" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M19" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N19" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O19" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P19" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R19" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S19" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H20" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I20" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J20" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R20" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S20" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T20" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H21" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I21" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J21" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R21" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S21" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T21" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H22" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I22" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J22" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K22" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L22" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M22" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N22" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O22" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P22" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R22" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S22" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H23" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I23" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J23" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R23" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S23" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T23" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H24" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I24" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J24" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R24" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S24" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T24" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H25" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I25" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J25" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K25" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L25" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M25" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N25" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O25" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P25" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q25" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R25" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S25" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H26" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I26" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J26" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R26" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S26" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T26" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H27" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I27" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J27" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R27" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S27" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T27" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H28" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I28" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J28" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K28" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L28" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M28" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N28" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O28" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P28" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q28" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R28" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S28" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H29" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I29" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J29" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R29" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S29" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T29" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H30" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I30" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J30" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R30" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S30" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T30" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H31" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I31" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J31" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K31" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L31" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M31" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N31" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O31" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P31" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R31" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S31" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H32" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I32" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J32" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R32" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S32" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T32" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H33" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I33" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J33" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R33" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S33" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T33" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H34" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I34" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J34" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K34" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L34" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M34" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N34" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O34" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P34" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q34" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R34" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S34" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H35" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I35" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J35" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R35" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S35" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T35" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H36" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I36" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J36" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R36" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S36" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T36" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H37" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I37" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J37" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K37" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L37" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M37" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N37" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O37" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P37" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R37" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S37" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H38" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I38" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J38" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R38" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S38" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T38" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H39" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I39" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J39" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R39" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S39" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T39" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H40" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I40" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J40" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K40" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L40" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M40" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N40" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O40" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P40" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q40" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R40" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S40" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H41" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I41" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J41" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R41" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S41" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T41" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H42" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I42" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J42" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R42" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S42" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T42" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H43" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I43" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J43" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K43" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L43" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M43" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N43" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O43" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P43" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R43" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S43" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.67247144649</v>
+        <v>421.7051206245199</v>
       </c>
       <c r="H44" t="n">
-        <v>344.4562700805762</v>
+        <v>344.7906384750746</v>
       </c>
       <c r="I44" t="n">
-        <v>233.6960892616871</v>
+        <v>234.9547966976832</v>
       </c>
       <c r="J44" t="n">
-        <v>58.04787051854379</v>
+        <v>60.81892869235529</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.82473475935981</v>
+        <v>66.35047868333143</v>
       </c>
       <c r="R44" t="n">
-        <v>177.7417084225297</v>
+        <v>179.7926073519477</v>
       </c>
       <c r="S44" t="n">
-        <v>223.6890190097018</v>
+        <v>224.4330121540572</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1194471824624</v>
+        <v>217.2623689592881</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7507974607606</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7431091110548</v>
+        <v>160.7605779613563</v>
       </c>
       <c r="H45" t="n">
-        <v>135.1247873568297</v>
+        <v>135.2934996742156</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5907987307646</v>
+        <v>108.1922481819361</v>
       </c>
       <c r="J45" t="n">
-        <v>55.77366116803451</v>
+        <v>57.42408443270769</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.12417261947328</v>
+        <v>21.35405603691203</v>
       </c>
       <c r="R45" t="n">
-        <v>137.5132525315004</v>
+        <v>138.5978536054855</v>
       </c>
       <c r="S45" t="n">
-        <v>202.9728674021163</v>
+        <v>203.2973436346909</v>
       </c>
       <c r="T45" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0699311942842</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6328183931567</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0211108938104</v>
       </c>
       <c r="H46" t="n">
-        <v>165.5512455545521</v>
+        <v>165.6814555612432</v>
       </c>
       <c r="I46" t="n">
-        <v>160.8814820690915</v>
+        <v>161.3219060999036</v>
       </c>
       <c r="J46" t="n">
-        <v>116.1666473818438</v>
+        <v>117.2020698992638</v>
       </c>
       <c r="K46" t="n">
-        <v>60.9846485306895</v>
+        <v>62.68616579603972</v>
       </c>
       <c r="L46" t="n">
-        <v>27.13168239150397</v>
+        <v>29.30903867926121</v>
       </c>
       <c r="M46" t="n">
-        <v>21.92043642499797</v>
+        <v>24.21615334255929</v>
       </c>
       <c r="N46" t="n">
-        <v>10.42782837918966</v>
+        <v>12.668958279631</v>
       </c>
       <c r="O46" t="n">
-        <v>38.51130877303761</v>
+        <v>40.5813549734809</v>
       </c>
       <c r="P46" t="n">
-        <v>62.28378240539014</v>
+        <v>64.05506454140105</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.5538037180701</v>
+        <v>133.780147656344</v>
       </c>
       <c r="R46" t="n">
-        <v>210.8055304093206</v>
+        <v>211.4640362304804</v>
       </c>
       <c r="S46" t="n">
-        <v>239.7200535905258</v>
+        <v>239.9752811803283</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1753916186503</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2079470502034</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>417613.6380114718</v>
+        <v>427713.4961806209</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>431533.8047906961</v>
+        <v>440950.730421118</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>472675.338694473</v>
+        <v>470994.5769694274</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82771.66651334811</v>
+        <v>85059.69424335432</v>
       </c>
       <c r="C2" t="n">
-        <v>85059.69424335432</v>
+        <v>85059.6942433543</v>
       </c>
       <c r="D2" t="n">
-        <v>85916.34110757665</v>
+        <v>88116.36441638668</v>
       </c>
       <c r="E2" t="n">
-        <v>96070.40428491995</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="F2" t="n">
-        <v>96070.40428491995</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="G2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="H2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310064</v>
       </c>
       <c r="I2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="J2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="K2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="L2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="M2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="N2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="O2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
       <c r="P2" t="n">
-        <v>96070.40428491993</v>
+        <v>95617.00243310063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>312121.5186186302</v>
+        <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>17718.73356555193</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6239.192452337453</v>
+        <v>24818.2547199784</v>
       </c>
       <c r="E3" t="n">
-        <v>101541.5313552501</v>
+        <v>77587.66693618613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17550.58319695605</v>
+        <v>16591.64067107515</v>
       </c>
       <c r="C4" t="n">
         <v>16591.64067107515</v>
       </c>
       <c r="D4" t="n">
-        <v>16271.48943740879</v>
+        <v>15054.96907524877</v>
       </c>
       <c r="E4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="F4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="G4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="H4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="I4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="J4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="K4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="L4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="M4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="N4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="O4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
       <c r="P4" t="n">
-        <v>8335.051317360203</v>
+        <v>8845.731876107831</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40688.78442350418</v>
+        <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
         <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>41271.79307559616</v>
+        <v>41744.72270709982</v>
       </c>
       <c r="E5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="F5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="G5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="H5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="I5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="J5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="K5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="L5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="M5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="N5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="O5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
       <c r="P5" t="n">
-        <v>10399.47950537606</v>
+        <v>10222.43117521465</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-287589.2197257424</v>
+        <v>-320248.5036491941</v>
       </c>
       <c r="C6" t="n">
-        <v>9636.345441175232</v>
+        <v>10623.25053590999</v>
       </c>
       <c r="D6" t="n">
-        <v>22133.86614223424</v>
+        <v>-9978.688042338086</v>
       </c>
       <c r="E6" t="n">
-        <v>-24205.65789306644</v>
+        <v>-16890.88034274628</v>
       </c>
       <c r="F6" t="n">
-        <v>77335.87346218369</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="G6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="H6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="I6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="J6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="K6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="L6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="M6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="N6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="O6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
       <c r="P6" t="n">
-        <v>77335.87346218368</v>
+        <v>60696.78659343986</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.9075423625773</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
         <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
-        <v>350.6510585135856</v>
+        <v>372.3450783073314</v>
       </c>
       <c r="E3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="F3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="G3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="H3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="I3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="J3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="K3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="L3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="M3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="N3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="O3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
       <c r="P3" t="n">
-        <v>477.0403442833053</v>
+        <v>468.9188612483786</v>
       </c>
     </row>
     <row r="4">
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.9075423625773</v>
+        <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>19.45826339668915</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.285252754319117</v>
+        <v>28.97927254806484</v>
       </c>
       <c r="E3" t="n">
-        <v>126.3892857697197</v>
+        <v>96.57378294104718</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.302140873819405</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H2" t="n">
-        <v>13.33555022400299</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I2" t="n">
-        <v>50.20078603792267</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J2" t="n">
-        <v>110.5175789893298</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K2" t="n">
-        <v>165.6372021781053</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>205.487595945256</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
-        <v>228.6445437100418</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>232.3442514677812</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
-        <v>219.3960881537395</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P2" t="n">
-        <v>187.2494853313229</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6165652876654</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R2" t="n">
-        <v>81.79560666505829</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S2" t="n">
-        <v>29.67253516215973</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>5.70012167514445</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1041712699055524</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6967067892327135</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>6.728720832852787</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
-        <v>23.98749252402106</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J3" t="n">
-        <v>65.82351292483283</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>112.5028678034246</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
-        <v>151.2739894779188</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M3" t="n">
-        <v>176.5296105876046</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N3" t="n">
-        <v>181.2018240996082</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O3" t="n">
-        <v>165.7642684013465</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P3" t="n">
-        <v>133.0404394281311</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>88.93401049924954</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>43.2569355630627</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
-        <v>12.94102303684447</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T3" t="n">
-        <v>2.80821727765291</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04583597297583644</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5840955681948115</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H4" t="n">
-        <v>5.193140597222964</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I4" t="n">
-        <v>17.56534672353125</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J4" t="n">
-        <v>41.29555667137317</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K4" t="n">
-        <v>67.86128510481535</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L4" t="n">
-        <v>86.8390811114359</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>91.55963529439212</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
-        <v>89.3825518129388</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O4" t="n">
-        <v>82.5592535844812</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P4" t="n">
-        <v>70.64370399330699</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.91003889674917</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R4" t="n">
-        <v>26.26306072992306</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S4" t="n">
-        <v>10.1791927657223</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T4" t="n">
-        <v>2.495681064105103</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03185975826517157</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31293,13 +31293,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562029</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>246.301986476946</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
         <v>232.5759815281271</v>
@@ -31317,7 +31317,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.04254799883895</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
         <v>0.1104292038622766</v>
@@ -31360,7 +31360,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.132938719640613</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
         <v>25.42850542651172</v>
@@ -31369,7 +31369,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003672</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
         <v>160.3615491897405</v>
@@ -31387,10 +31387,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.276588781299</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>45.85553156913376</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
         <v>13.71843573009899</v>
@@ -31454,7 +31454,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>97.05994407716445</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
         <v>94.75207554665143</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537027</v>
+        <v>1.496864636411381</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015983</v>
+        <v>15.32976495764806</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274376</v>
+        <v>57.70787389524983</v>
       </c>
       <c r="J8" t="n">
-        <v>119.6424935779595</v>
+        <v>127.0445149346206</v>
       </c>
       <c r="K8" t="n">
-        <v>179.3130837563719</v>
+        <v>190.4067949939144</v>
       </c>
       <c r="L8" t="n">
-        <v>222.453736347267</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>247.5226439325573</v>
+        <v>262.8363325882701</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883432</v>
+        <v>267.089299236474</v>
       </c>
       <c r="O8" t="n">
-        <v>237.5105870759031</v>
+        <v>252.2048515081583</v>
       </c>
       <c r="P8" t="n">
-        <v>202.7097910676452</v>
+        <v>215.2510057967523</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.2266110354129</v>
+        <v>161.6445410052697</v>
       </c>
       <c r="R8" t="n">
-        <v>88.54908363559406</v>
+        <v>94.02742321697652</v>
       </c>
       <c r="S8" t="n">
-        <v>32.12245626483752</v>
+        <v>34.10980290222439</v>
       </c>
       <c r="T8" t="n">
-        <v>6.170753803590836</v>
+        <v>6.552524945890824</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1127721997229621</v>
+        <v>0.1197491709129105</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.8008931873025619</v>
       </c>
       <c r="H9" t="n">
-        <v>7.284279536291656</v>
+        <v>7.734942098422112</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312875</v>
+        <v>27.57461193125049</v>
       </c>
       <c r="J9" t="n">
-        <v>71.25824954189763</v>
+        <v>75.66684275300214</v>
       </c>
       <c r="K9" t="n">
-        <v>121.7916983141008</v>
+        <v>129.3266863022738</v>
       </c>
       <c r="L9" t="n">
-        <v>163.7639684124062</v>
+        <v>173.8956896377778</v>
       </c>
       <c r="M9" t="n">
-        <v>191.1048268899041</v>
+        <v>202.9280676774956</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>179.4506412376083</v>
+        <v>190.5528628579038</v>
       </c>
       <c r="P9" t="n">
-        <v>144.0249602411744</v>
+        <v>152.9354718806094</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.27687176395656</v>
+        <v>102.2333128212884</v>
       </c>
       <c r="R9" t="n">
-        <v>46.82845645583321</v>
+        <v>49.72563140111873</v>
       </c>
       <c r="S9" t="n">
-        <v>14.00950219627391</v>
+        <v>14.87623968520328</v>
       </c>
       <c r="T9" t="n">
-        <v>3.040078516735708</v>
+        <v>3.228161575136202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.05269034126990541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6714419444886303</v>
       </c>
       <c r="H10" t="n">
-        <v>5.621913692234211</v>
+        <v>5.969729288271644</v>
       </c>
       <c r="I10" t="n">
-        <v>19.0156344518515</v>
+        <v>20.19209047607627</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147795</v>
+        <v>47.47094547534616</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760037</v>
+        <v>78.00934591422448</v>
       </c>
       <c r="L10" t="n">
-        <v>94.00897394969145</v>
+        <v>99.82510509242783</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917631</v>
+        <v>105.2515768074314</v>
       </c>
       <c r="N10" t="n">
-        <v>96.76244701572442</v>
+        <v>102.748929559792</v>
       </c>
       <c r="O10" t="n">
-        <v>89.37578127490541</v>
+        <v>94.90526684462934</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401214</v>
+        <v>81.20785117706122</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.94830983555142</v>
+        <v>56.22410682440704</v>
       </c>
       <c r="R10" t="n">
-        <v>28.43147762964252</v>
+        <v>30.19047143127968</v>
       </c>
       <c r="S10" t="n">
-        <v>11.01964064214005</v>
+        <v>11.70140188713367</v>
       </c>
       <c r="T10" t="n">
-        <v>2.701737663957134</v>
+        <v>2.868888308269602</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03449026805051665</v>
+        <v>0.03662410606301624</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H11" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I11" t="n">
-        <v>73.93406180093318</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J11" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K11" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L11" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M11" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P11" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q11" t="n">
-        <v>207.0954391104473</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R11" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S11" t="n">
-        <v>43.70073103660631</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T11" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H12" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I12" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J12" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K12" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31858,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R12" t="n">
-        <v>63.70738786485352</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S12" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T12" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H13" t="n">
-        <v>7.648286175558572</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I13" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J13" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K13" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L13" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M13" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N13" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O13" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P13" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R13" t="n">
-        <v>38.67936955451191</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S13" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T13" t="n">
-        <v>3.675556751035301</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H14" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I14" t="n">
-        <v>73.93406180093318</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J14" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K14" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L14" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M14" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P14" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q14" t="n">
-        <v>207.0954391104473</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R14" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S14" t="n">
-        <v>43.70073103660631</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T14" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H15" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I15" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J15" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K15" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32095,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R15" t="n">
-        <v>63.70738786485352</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S15" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T15" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H16" t="n">
-        <v>7.648286175558572</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I16" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J16" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K16" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L16" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M16" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N16" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O16" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P16" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R16" t="n">
-        <v>38.67936955451191</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S16" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T16" t="n">
-        <v>3.675556751035301</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H17" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I17" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J17" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K17" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L17" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M17" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P17" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q17" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R17" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S17" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T17" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H18" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I18" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J18" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K18" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32332,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R18" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S18" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T18" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H19" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I19" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J19" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K19" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L19" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M19" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N19" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O19" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P19" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R19" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S19" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T19" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H20" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I20" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J20" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K20" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L20" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M20" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P20" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q20" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R20" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S20" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T20" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H21" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I21" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J21" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K21" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32569,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R21" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S21" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T21" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H22" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I22" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J22" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K22" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L22" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M22" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N22" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O22" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P22" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R22" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S22" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T22" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H23" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I23" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J23" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K23" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L23" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M23" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P23" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q23" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R23" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S23" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T23" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H24" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I24" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J24" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K24" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32806,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R24" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S24" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T24" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H25" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I25" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J25" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K25" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L25" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M25" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N25" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O25" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P25" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R25" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S25" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T25" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H26" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I26" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J26" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K26" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L26" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M26" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P26" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R26" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S26" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T26" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H27" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I27" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J27" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K27" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33043,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R27" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S27" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T27" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H28" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I28" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J28" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K28" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L28" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M28" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N28" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O28" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P28" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R28" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S28" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T28" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H29" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I29" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J29" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K29" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L29" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M29" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P29" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R29" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S29" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T29" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H30" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I30" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J30" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K30" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33280,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R30" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S30" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T30" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H31" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I31" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J31" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K31" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L31" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M31" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N31" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O31" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P31" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R31" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S31" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T31" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H32" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I32" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J32" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K32" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L32" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M32" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P32" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R32" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T32" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H33" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I33" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J33" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K33" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33517,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R33" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S33" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T33" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H34" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I34" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J34" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K34" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L34" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M34" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N34" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O34" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P34" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R34" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S34" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T34" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H35" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I35" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J35" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K35" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L35" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M35" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P35" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q35" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R35" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S35" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T35" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H36" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I36" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J36" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K36" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33754,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R36" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S36" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T36" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H37" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I37" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J37" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K37" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L37" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M37" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N37" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O37" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P37" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R37" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S37" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T37" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H38" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I38" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J38" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K38" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L38" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M38" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P38" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q38" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R38" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S38" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T38" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H39" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I39" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J39" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K39" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33991,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R39" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S39" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T39" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H40" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I40" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J40" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K40" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L40" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M40" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O40" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P40" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R40" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S40" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T40" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H41" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I41" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J41" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K41" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L41" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M41" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P41" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q41" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R41" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S41" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T41" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H42" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I42" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J42" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K42" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34228,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R42" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S42" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T42" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H43" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I43" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J43" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K43" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L43" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M43" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N43" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O43" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P43" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R43" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S43" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T43" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.91775012777208</v>
+        <v>1.885100949742224</v>
       </c>
       <c r="H44" t="n">
-        <v>19.64015849604582</v>
+        <v>19.30579010154755</v>
       </c>
       <c r="I44" t="n">
-        <v>73.93406180093319</v>
+        <v>72.67535436493716</v>
       </c>
       <c r="J44" t="n">
-        <v>162.7666449069957</v>
+        <v>159.9955867331842</v>
       </c>
       <c r="K44" t="n">
-        <v>243.9450078155879</v>
+        <v>239.7919099357726</v>
       </c>
       <c r="L44" t="n">
-        <v>302.6353532883928</v>
+        <v>297.4830681264463</v>
       </c>
       <c r="M44" t="n">
-        <v>336.7401421231595</v>
+        <v>331.0072321414245</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>323.1193218406583</v>
+        <v>317.6183026458804</v>
       </c>
       <c r="P44" t="n">
-        <v>275.774865561285</v>
+        <v>271.0798729491192</v>
       </c>
       <c r="Q44" t="n">
-        <v>207.0954391104474</v>
+        <v>203.5696951864757</v>
       </c>
       <c r="R44" t="n">
-        <v>120.465871463663</v>
+        <v>118.4149725342451</v>
       </c>
       <c r="S44" t="n">
-        <v>43.70073103660632</v>
+        <v>42.95673789225097</v>
       </c>
       <c r="T44" t="n">
-        <v>8.394951184322284</v>
+        <v>8.25202940749659</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.1508080759793779</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.026086778269751</v>
+        <v>1.008617927968211</v>
       </c>
       <c r="H45" t="n">
-        <v>9.909838095394703</v>
+        <v>9.741125778008772</v>
       </c>
       <c r="I45" t="n">
-        <v>35.32798776060327</v>
+        <v>34.72653830943182</v>
       </c>
       <c r="J45" t="n">
-        <v>96.94269864345925</v>
+        <v>95.29227537878607</v>
       </c>
       <c r="K45" t="n">
-        <v>165.6905127875326</v>
+        <v>162.8696765526562</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34465,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>195.937570843458</v>
+        <v>192.6017866135086</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.9790771700124</v>
+        <v>128.7491937525737</v>
       </c>
       <c r="R45" t="n">
-        <v>63.70738786485351</v>
+        <v>62.6227867908684</v>
       </c>
       <c r="S45" t="n">
-        <v>19.05911186829997</v>
+        <v>18.7346356357253</v>
       </c>
       <c r="T45" t="n">
-        <v>4.135849777324126</v>
+        <v>4.065438051766601</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06635644262948756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.8455913891364203</v>
       </c>
       <c r="H46" t="n">
-        <v>7.648286175558571</v>
+        <v>7.518076168867451</v>
       </c>
       <c r="I46" t="n">
-        <v>25.86966326047827</v>
+        <v>25.42923922966617</v>
       </c>
       <c r="J46" t="n">
-        <v>60.81873372936499</v>
+        <v>59.78331121194491</v>
       </c>
       <c r="K46" t="n">
-        <v>99.94386229410884</v>
+        <v>98.24234502875862</v>
       </c>
       <c r="L46" t="n">
-        <v>127.8937342690029</v>
+        <v>125.7163779812456</v>
       </c>
       <c r="M46" t="n">
-        <v>134.8460107619185</v>
+        <v>132.5502938443572</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6396740216538</v>
+        <v>129.3985441212125</v>
       </c>
       <c r="O46" t="n">
-        <v>121.590545457653</v>
+        <v>119.5204992572097</v>
       </c>
       <c r="P46" t="n">
-        <v>104.0417170548375</v>
+        <v>102.2704349188266</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.0330919867791</v>
+        <v>70.80674804850516</v>
       </c>
       <c r="R46" t="n">
-        <v>38.67936955451192</v>
+        <v>38.02086373335212</v>
       </c>
       <c r="S46" t="n">
-        <v>14.99157934411632</v>
+        <v>14.73635175431379</v>
       </c>
       <c r="T46" t="n">
-        <v>3.675556751035302</v>
+        <v>3.612981389946522</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04612316668016843</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
